--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st01.xlsx
@@ -4352,7 +4352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="헬라그"]   물론이네. 만약 그때 자네가 방패로 눈보라를 막아내며 요새로 돌진하지 않았다면 나는 물론이고, 바클라이와 세묜까지 모두 카시미어의 실버 랜스 페가수스 기사단 놈들 손에 죽었을 테니 말일세.
+    <t xml:space="preserve">[name="헬라그"]   물론이네. 만약 그때 자네가 방패로 눈보라를 막아내며 요새로 돌진하지 않았다면 나는 물론이고, 바클라이와 세묜까지 모두 카시미어의 실버랜스 페가수스의 손에 죽었을 테니 말일세.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st01.xlsx
@@ -2944,7 +2944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   Or is it "Patriot" now?
+    <t xml:space="preserve">[name="Hellagur"]   Or is it 'Patriot' now?
 </t>
   </si>
   <si>
@@ -3484,7 +3484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   "Patriot," is war with Ursus the correct course of action?
+    <t xml:space="preserve">[name="Hellagur"]   'Patriot,' is war with Ursus the correct course of action?
 </t>
   </si>
   <si>
@@ -3624,7 +3624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   I am afraid not, "Patriot." I will never again step into a war.
+    <t xml:space="preserve">[name="Hellagur"]   I am afraid not, 'Patriot.' I will never again step into a war.
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   ...Listen to me, "Patriot..."
+    <t xml:space="preserve">[name="Hellagur"]   ...Listen to me, 'Patriot...'
 </t>
   </si>
   <si>
@@ -3780,7 +3780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   For what? "Patriot" of Reunion, I ask you:
+    <t xml:space="preserve">[name="Hellagur"]   For what? 'Patriot' of Reunion, I ask you:
 </t>
   </si>
   <si>
@@ -4120,7 +4120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]   "I will never forget fighting side by side with you, Doctor."
+    <t xml:space="preserve">[name="Scout"]   'I will never forget fighting side by side with you, Doctor.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st01.xlsx
@@ -2860,7 +2860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]   …Boss…
+    <t xml:space="preserve">[name="Vanguard Operator"]   ...Boss...
 </t>
   </si>
   <si>
@@ -3000,7 +3000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   …I was jesting. But your loyalty, your record, and the plans you would devise in our staff meetings... You truly were one of the finest officers in all of Ursus.
+    <t xml:space="preserve">[name="Hellagur"]   ...I was jesting. But your loyalty, your record, and the plans you would devise in our staff meetings... You truly were one of the finest officers in all of Ursus.
 </t>
   </si>
   <si>
